--- a/StructureDefinition-ANCExamination.xlsx
+++ b/StructureDefinition-ANCExamination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:57:51+00:00</t>
+    <t>2026-01-15T12:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ANCExamination.xlsx
+++ b/StructureDefinition-ANCExamination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,7 +458,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.symphysisFundalHeightSfh</t>
+    <t>ANCExamination.symphysisFundalHeight</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Symphysis-fundal height (SFH)</t>
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.otherAbnormalPelvicVisualResultSpecify</t>
+    <t>ANCExamination.otherAbnormalPelvicResult</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.otherFetalPresentationSpecify</t>
+    <t>ANCExamination.otherFetalPresentation</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Other fetal presentation (specify)</t>
@@ -774,7 +774,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.ancGestationalAgeAtVisitAnc</t>
+    <t>ANCExamination.gestationalAgeAtVisitAnc</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Gestational age at today's visit_ANC</t>
@@ -854,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.1stAncOrAScheduledVisit</t>
+    <t>ANCExamination.firstAncOrAScheduledVisit</t>
   </si>
   <si>
     <t>ANC - ANC.B5. Regular ANC / Scheduled visit?</t>

--- a/StructureDefinition-ANCExamination.xlsx
+++ b/StructureDefinition-ANCExamination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t>ANCExamination.ancVisitNumber</t>
+    <t>ANCExamination.visitNumber</t>
   </si>
   <si>
     <t>ANC - ANC Visit Number</t>
